--- a/books.xlsx
+++ b/books.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program\GitHub\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92F1A45B-090F-4F73-A817-63A9C43F0730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFECEA25-A2F2-4406-BA58-38E6D7562195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{735EFF2F-E34B-473F-A465-0DF3648107AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{735EFF2F-E34B-473F-A465-0DF3648107AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,7 +59,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Game Design: Advance Techniques</t>
+    <t>Game</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,6 +124,86 @@
   </si>
   <si>
     <t>Maker DIY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accounting for Dummies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accounting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advanced Selling for Dummies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marketing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Design: Advanced Techniques</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advertising for Dummies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdWords for Dummies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anger Management for Dummies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Psychology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto Repair for Dummies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bike Maintenance for Dummies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repairing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Car Hacks and Mods for Dummies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chess for Dummies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer Virus for Dummies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Negotiating for Dummies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piano for Dummies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Marketing for Dummies</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CE23CA-C014-4E41-88E4-85BD142108B9}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -547,7 +628,7 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>2018</v>
@@ -737,4 +818,264 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00914266-A793-4335-AC35-8C542D3E41A1}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2009</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2012</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2006</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2005</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2009</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2013</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>